--- a/sor/analiz13.xlsx
+++ b/sor/analiz13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2\Depo-prog_vs\tg_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7617B-A8A6-4C6F-AD19-2DACF3CE11C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E988D5-7D21-4256-9E16-107EC18C5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{223EC2D6-F785-411F-AC93-4FC6F719771E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="722">
   <si>
     <t>API Türü</t>
   </si>
@@ -4839,6 +4839,66 @@
   </si>
   <si>
     <t>from analysis.config.c_rmanomal import CONFIG as RegimeAnomalyConfig</t>
+  </si>
+  <si>
+    <t>Kaynak</t>
+  </si>
+  <si>
+    <t>Ne sunar?</t>
+  </si>
+  <si>
+    <t>Gerçeklik</t>
+  </si>
+  <si>
+    <t>API Desteği</t>
+  </si>
+  <si>
+    <t>Binance Proof of Reserves</t>
+  </si>
+  <si>
+    <t>Tutulan coin sayıları, dönemsel oranlar</t>
+  </si>
+  <si>
+    <t>Gerçek, ama geçici</t>
+  </si>
+  <si>
+    <t>Web'den veri çekilebilir</t>
+  </si>
+  <si>
+    <t>Glassnode / CryptoQuant</t>
+  </si>
+  <si>
+    <t>Anlık, detaylı oranlar</t>
+  </si>
+  <si>
+    <t>Güvenilir, kapsamlı</t>
+  </si>
+  <si>
+    <t>Ücretli API</t>
+  </si>
+  <si>
+    <t>Arkham</t>
+  </si>
+  <si>
+    <t>Adres bazlı token analizi</t>
+  </si>
+  <si>
+    <t>On-chain &amp; şeffaf</t>
+  </si>
+  <si>
+    <t>Kısmen ücretsiz</t>
+  </si>
+  <si>
+    <t>Binance API</t>
+  </si>
+  <si>
+    <t>Sadece işlem verileri (orderbook, hacim)</t>
+  </si>
+  <si>
+    <t>Tahmini analiz yapılabilir</t>
+  </si>
+  <si>
+    <t>Evet</t>
   </si>
 </sst>
 </file>
@@ -5673,10 +5733,10 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="35.25" customHeight="1"/>
@@ -6562,7 +6622,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="35.25" customHeight="1">
+    <row r="17" spans="3:6" ht="35.25" customHeight="1">
       <c r="C17" s="45" t="s">
         <v>55</v>
       </c>
@@ -6570,12 +6630,82 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="35.25" customHeight="1">
+    <row r="18" spans="3:6" ht="35.25" customHeight="1">
       <c r="C18" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="35.25" customHeight="1">
+      <c r="C19" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="35.25" customHeight="1">
+      <c r="C20" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="35.25" customHeight="1">
+      <c r="C21" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="35.25" customHeight="1">
+      <c r="C22" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="35.25" customHeight="1">
+      <c r="C23" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="35.25" customHeight="1">
@@ -7454,6 +7584,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="F23:F25"/>
@@ -7470,18 +7612,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="F20:F22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
